--- a/Statistical analyses/Tukey posthoc/PPO/Vmax, Three-way.xlsx
+++ b/Statistical analyses/Tukey posthoc/PPO/Vmax, Three-way.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\PPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59CF1B-D73D-48C0-972B-8286C8E877C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,17 +153,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +303,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +496,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A17" sqref="A16:A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -477,22 +539,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.0458</v>
+        <v>4.58E-2</v>
       </c>
       <c r="D2">
         <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-0.8041</v>
+        <v>-0.80410000000000004</v>
       </c>
       <c r="F2">
-        <v>0.8958</v>
+        <v>0.89580000000000004</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -500,22 +562,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>-0.6189</v>
+        <v>-0.61890000000000001</v>
       </c>
       <c r="D3">
         <v>0.4471</v>
       </c>
       <c r="E3">
-        <v>-1.4689</v>
+        <v>-1.4689000000000001</v>
       </c>
       <c r="F3">
-        <v>0.231</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -523,22 +585,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.3245</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
-        <v>-0.5254</v>
+        <v>-0.52539999999999998</v>
       </c>
       <c r="F4">
-        <v>1.1745</v>
+        <v>1.1745000000000001</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -546,22 +608,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-0.08110000000000001</v>
+        <v>-8.1100000000000005E-2</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
-        <v>-0.9311</v>
+        <v>-0.93110000000000004</v>
       </c>
       <c r="F5">
-        <v>0.7689</v>
+        <v>0.76890000000000003</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -569,22 +631,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>-0.2458</v>
+        <v>-0.24579999999999999</v>
       </c>
       <c r="D6">
         <v>0.9</v>
       </c>
       <c r="E6">
-        <v>-1.0958</v>
+        <v>-1.0958000000000001</v>
       </c>
       <c r="F6">
-        <v>0.6042</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -592,22 +654,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.1529</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>-0.6971000000000001</v>
+        <v>-0.69710000000000005</v>
       </c>
       <c r="F7">
-        <v>1.0029</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -615,22 +677,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.1568</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="D8">
         <v>0.9</v>
       </c>
       <c r="E8">
-        <v>-0.6931</v>
+        <v>-0.69310000000000005</v>
       </c>
       <c r="F8">
-        <v>1.0068</v>
+        <v>1.0067999999999999</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -638,22 +700,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>-0.2194</v>
+        <v>-0.21940000000000001</v>
       </c>
       <c r="D9">
         <v>0.9</v>
       </c>
       <c r="E9">
-        <v>-1.0694</v>
+        <v>-1.0693999999999999</v>
       </c>
       <c r="F9">
-        <v>0.6306</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -661,22 +723,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.1456</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-0.7043</v>
+        <v>-0.70430000000000004</v>
       </c>
       <c r="F10">
-        <v>0.9956</v>
+        <v>0.99560000000000004</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -690,16 +752,16 @@
         <v>0.9</v>
       </c>
       <c r="E11">
-        <v>-1.1869</v>
+        <v>-1.1869000000000001</v>
       </c>
       <c r="F11">
-        <v>0.4258</v>
+        <v>0.42580000000000001</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -713,16 +775,16 @@
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>-0.6703</v>
+        <v>-0.67030000000000001</v>
       </c>
       <c r="F12">
-        <v>1.0297</v>
+        <v>1.0297000000000001</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -739,13 +801,13 @@
         <v>-1.2719</v>
       </c>
       <c r="F13">
-        <v>0.4281</v>
+        <v>0.42809999999999998</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -753,22 +815,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-0.0484</v>
+        <v>-4.8399999999999999E-2</v>
       </c>
       <c r="D14">
         <v>0.9</v>
       </c>
       <c r="E14">
-        <v>-0.8984</v>
+        <v>-0.89839999999999998</v>
       </c>
       <c r="F14">
-        <v>0.8016</v>
+        <v>0.80159999999999998</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -776,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-0.0689</v>
+        <v>-6.8900000000000003E-2</v>
       </c>
       <c r="D15">
         <v>0.9</v>
       </c>
       <c r="E15">
-        <v>-0.9189000000000001</v>
+        <v>-0.91890000000000005</v>
       </c>
       <c r="F15">
-        <v>0.7811</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -799,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>-0.2689</v>
+        <v>-0.26889999999999997</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -808,13 +870,13 @@
         <v>-1.1189</v>
       </c>
       <c r="F16">
-        <v>0.5810999999999999</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -822,13 +884,13 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>-0.6647999999999999</v>
+        <v>-0.66479999999999995</v>
       </c>
       <c r="D17">
-        <v>0.3193</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="E17">
-        <v>-1.5148</v>
+        <v>-1.5147999999999999</v>
       </c>
       <c r="F17">
         <v>0.1852</v>
@@ -837,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -851,7 +913,7 @@
         <v>0.9</v>
       </c>
       <c r="E18">
-        <v>-0.5713</v>
+        <v>-0.57130000000000003</v>
       </c>
       <c r="F18">
         <v>1.1287</v>
@@ -860,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -874,16 +936,16 @@
         <v>0.9</v>
       </c>
       <c r="E19">
-        <v>-0.9769</v>
+        <v>-0.97689999999999999</v>
       </c>
       <c r="F19">
-        <v>0.723</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -891,22 +953,22 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>-0.2916</v>
+        <v>-0.29160000000000003</v>
       </c>
       <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20">
-        <v>-1.1416</v>
+        <v>-1.1415999999999999</v>
       </c>
       <c r="F20">
-        <v>0.5584</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -923,13 +985,13 @@
         <v>-0.7429</v>
       </c>
       <c r="F21">
-        <v>0.9570000000000001</v>
+        <v>0.95700000000000007</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -946,13 +1008,13 @@
         <v>-0.7390000000000001</v>
       </c>
       <c r="F22">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -960,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>-0.2652</v>
+        <v>-0.26519999999999999</v>
       </c>
       <c r="D23">
         <v>0.9</v>
@@ -975,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -983,22 +1045,22 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>0.0998</v>
+        <v>9.98E-2</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24">
-        <v>-0.7502</v>
+        <v>-0.75019999999999998</v>
       </c>
       <c r="F24">
-        <v>0.9498</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1074,7 @@
         <v>0.8861</v>
       </c>
       <c r="E25">
-        <v>-1.2327</v>
+        <v>-1.2326999999999999</v>
       </c>
       <c r="F25">
         <v>0.38</v>
@@ -1021,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1035,16 +1097,16 @@
         <v>0.9</v>
       </c>
       <c r="E26">
-        <v>-0.7161</v>
+        <v>-0.71609999999999996</v>
       </c>
       <c r="F26">
-        <v>0.9838</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1055,19 +1117,19 @@
         <v>-0.4677</v>
       </c>
       <c r="D27">
-        <v>0.8390000000000001</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="E27">
-        <v>-1.3177</v>
+        <v>-1.3177000000000001</v>
       </c>
       <c r="F27">
-        <v>0.3822</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1075,22 +1137,22 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>-0.09420000000000001</v>
+        <v>-9.4200000000000006E-2</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28">
-        <v>-0.9442</v>
+        <v>-0.94420000000000004</v>
       </c>
       <c r="F28">
-        <v>0.7557</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1107,13 +1169,13 @@
         <v>-0.9647</v>
       </c>
       <c r="F29">
-        <v>0.7352</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1121,45 +1183,45 @@
         <v>22</v>
       </c>
       <c r="C30">
-        <v>-0.3147</v>
+        <v>-0.31469999999999998</v>
       </c>
       <c r="D30">
         <v>0.9</v>
       </c>
       <c r="E30">
-        <v>-1.1647</v>
+        <v>-1.1647000000000001</v>
       </c>
       <c r="F30">
-        <v>0.5352</v>
+        <v>0.53520000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>0.9435</v>
-      </c>
-      <c r="D31">
-        <v>0.015</v>
-      </c>
-      <c r="E31">
-        <v>0.0935</v>
-      </c>
-      <c r="F31">
-        <v>1.7935</v>
-      </c>
-      <c r="G31" t="b">
+      <c r="C31" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.35E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.7935000000000001</v>
+      </c>
+      <c r="G31" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1167,22 +1229,22 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>0.5377999999999999</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="D32">
-        <v>0.6586</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="E32">
-        <v>-0.3122</v>
+        <v>-0.31219999999999998</v>
       </c>
       <c r="F32">
-        <v>1.3878</v>
+        <v>1.3877999999999999</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>0.3732</v>
+        <v>0.37319999999999998</v>
       </c>
       <c r="D33">
         <v>0.9</v>
@@ -1199,13 +1261,13 @@
         <v>-0.4768</v>
       </c>
       <c r="F33">
-        <v>1.2231</v>
+        <v>1.2231000000000001</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1213,22 +1275,22 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>0.7718</v>
+        <v>0.77180000000000004</v>
       </c>
       <c r="D34">
         <v>0.1208</v>
       </c>
       <c r="E34">
-        <v>-0.0781</v>
+        <v>-7.8100000000000003E-2</v>
       </c>
       <c r="F34">
-        <v>1.6218</v>
+        <v>1.6217999999999999</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1236,22 +1298,22 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>0.7758</v>
+        <v>0.77580000000000005</v>
       </c>
       <c r="D35">
         <v>0.1159</v>
       </c>
       <c r="E35">
-        <v>-0.0742</v>
+        <v>-7.4200000000000002E-2</v>
       </c>
       <c r="F35">
-        <v>1.6258</v>
+        <v>1.6257999999999999</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1259,22 +1321,22 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <v>0.3995</v>
+        <v>0.39950000000000002</v>
       </c>
       <c r="D36">
         <v>0.9</v>
       </c>
       <c r="E36">
-        <v>-0.4504</v>
+        <v>-0.45040000000000002</v>
       </c>
       <c r="F36">
-        <v>1.2495</v>
+        <v>1.2495000000000001</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1282,13 +1344,13 @@
         <v>16</v>
       </c>
       <c r="C37">
-        <v>0.7645999999999999</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="D37">
         <v>0.129</v>
       </c>
       <c r="E37">
-        <v>-0.0854</v>
+        <v>-8.5400000000000004E-2</v>
       </c>
       <c r="F37">
         <v>1.6146</v>
@@ -1297,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1373,7 @@
         <v>0.9</v>
       </c>
       <c r="E38">
-        <v>-0.5679</v>
+        <v>-0.56789999999999996</v>
       </c>
       <c r="F38">
         <v>1.0448</v>
@@ -1320,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1328,22 +1390,22 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>0.7986</v>
+        <v>0.79859999999999998</v>
       </c>
       <c r="D39">
         <v>0.09</v>
       </c>
       <c r="E39">
-        <v>-0.0514</v>
+        <v>-5.1400000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>1.6486</v>
+        <v>1.6486000000000001</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1357,16 +1419,16 @@
         <v>0.9</v>
       </c>
       <c r="E40">
-        <v>-0.6529</v>
+        <v>-0.65290000000000004</v>
       </c>
       <c r="F40">
-        <v>1.047</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1374,22 +1436,22 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>0.5705</v>
+        <v>0.57050000000000001</v>
       </c>
       <c r="D41">
-        <v>0.5744</v>
+        <v>0.57440000000000002</v>
       </c>
       <c r="E41">
-        <v>-0.2794</v>
+        <v>-0.27939999999999998</v>
       </c>
       <c r="F41">
-        <v>1.4205</v>
+        <v>1.4205000000000001</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1397,10 +1459,10 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D42">
-        <v>0.6272</v>
+        <v>0.62719999999999998</v>
       </c>
       <c r="E42">
         <v>-0.2999</v>
@@ -1412,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1488,7 @@
         <v>0.9</v>
       </c>
       <c r="E43">
-        <v>-0.4999</v>
+        <v>-0.49990000000000001</v>
       </c>
       <c r="F43">
         <v>1.2</v>
@@ -1435,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>-0.4056</v>
+        <v>-0.40560000000000002</v>
       </c>
       <c r="D44">
         <v>0.9</v>
@@ -1452,13 +1514,13 @@
         <v>-1.2556</v>
       </c>
       <c r="F44">
-        <v>0.4443</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1466,13 +1528,13 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>-0.5703</v>
+        <v>-0.57030000000000003</v>
       </c>
       <c r="D45">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E45">
-        <v>-1.4203</v>
+        <v>-1.4202999999999999</v>
       </c>
       <c r="F45">
         <v>0.2797</v>
@@ -1481,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1557,7 @@
         <v>0.9</v>
       </c>
       <c r="E46">
-        <v>-1.0216</v>
+        <v>-1.0216000000000001</v>
       </c>
       <c r="F46">
         <v>0.6784</v>
@@ -1504,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>-0.1677</v>
+        <v>-0.16769999999999999</v>
       </c>
       <c r="D47">
         <v>0.9</v>
@@ -1521,13 +1583,13 @@
         <v>-1.0177</v>
       </c>
       <c r="F47">
-        <v>0.6823</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1535,22 +1597,22 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>-0.5439000000000001</v>
+        <v>-0.54390000000000005</v>
       </c>
       <c r="D48">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="E48">
-        <v>-1.3939</v>
+        <v>-1.3938999999999999</v>
       </c>
       <c r="F48">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1564,16 +1626,16 @@
         <v>0.9</v>
       </c>
       <c r="E49">
-        <v>-1.0289</v>
+        <v>-1.0288999999999999</v>
       </c>
       <c r="F49">
-        <v>0.6711</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1581,13 +1643,13 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>-0.7050999999999999</v>
+        <v>-0.70509999999999995</v>
       </c>
       <c r="D50">
-        <v>0.1606</v>
+        <v>0.16059999999999999</v>
       </c>
       <c r="E50">
-        <v>-1.5114</v>
+        <v>-1.5114000000000001</v>
       </c>
       <c r="F50">
         <v>0.1013</v>
@@ -1596,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1610,16 +1672,16 @@
         <v>0.9</v>
       </c>
       <c r="E51">
-        <v>-0.9948</v>
+        <v>-0.99480000000000002</v>
       </c>
       <c r="F51">
-        <v>0.7050999999999999</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>-0.7464</v>
+        <v>-0.74639999999999995</v>
       </c>
       <c r="D52">
         <v>0.1555</v>
@@ -1642,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1650,22 +1712,22 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>-0.3729</v>
+        <v>-0.37290000000000001</v>
       </c>
       <c r="D53">
         <v>0.9</v>
       </c>
       <c r="E53">
-        <v>-1.2229</v>
+        <v>-1.2229000000000001</v>
       </c>
       <c r="F53">
-        <v>0.4771</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1673,22 +1735,22 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>-0.3934</v>
+        <v>-0.39340000000000003</v>
       </c>
       <c r="D54">
         <v>0.9</v>
       </c>
       <c r="E54">
-        <v>-1.2434</v>
+        <v>-1.2434000000000001</v>
       </c>
       <c r="F54">
-        <v>0.4566</v>
+        <v>0.45660000000000001</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1696,22 +1758,22 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>-0.5934</v>
+        <v>-0.59340000000000004</v>
       </c>
       <c r="D55">
-        <v>0.5155</v>
+        <v>0.51549999999999996</v>
       </c>
       <c r="E55">
         <v>-1.4434</v>
       </c>
       <c r="F55">
-        <v>0.2566</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1719,22 +1781,22 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>-0.1647</v>
+        <v>-0.16470000000000001</v>
       </c>
       <c r="D56">
         <v>0.9</v>
       </c>
       <c r="E56">
-        <v>-1.0146</v>
+        <v>-1.0145999999999999</v>
       </c>
       <c r="F56">
-        <v>0.6853</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1742,22 +1804,22 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D57">
         <v>0.9</v>
       </c>
       <c r="E57">
-        <v>-0.616</v>
+        <v>-0.61599999999999999</v>
       </c>
       <c r="F57">
-        <v>1.084</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1765,22 +1827,22 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D58">
         <v>0.9</v>
       </c>
       <c r="E58">
-        <v>-0.612</v>
+        <v>-0.61199999999999999</v>
       </c>
       <c r="F58">
-        <v>1.0879</v>
+        <v>1.0879000000000001</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1788,13 +1850,13 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>-0.1383</v>
+        <v>-0.13830000000000001</v>
       </c>
       <c r="D59">
         <v>0.9</v>
       </c>
       <c r="E59">
-        <v>-0.9883</v>
+        <v>-0.98829999999999996</v>
       </c>
       <c r="F59">
         <v>0.7117</v>
@@ -1803,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1879,7 @@
         <v>0.9</v>
       </c>
       <c r="E60">
-        <v>-0.6232</v>
+        <v>-0.62319999999999998</v>
       </c>
       <c r="F60">
         <v>1.0767</v>
@@ -1826,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1840,16 +1902,16 @@
         <v>0.9</v>
       </c>
       <c r="E61">
-        <v>-1.1058</v>
+        <v>-1.1057999999999999</v>
       </c>
       <c r="F61">
-        <v>0.507</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1857,13 +1919,13 @@
         <v>18</v>
       </c>
       <c r="C62">
-        <v>0.2608</v>
+        <v>0.26079999999999998</v>
       </c>
       <c r="D62">
         <v>0.9</v>
       </c>
       <c r="E62">
-        <v>-0.5891999999999999</v>
+        <v>-0.58919999999999995</v>
       </c>
       <c r="F62">
         <v>1.1108</v>
@@ -1872,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1880,22 +1942,22 @@
         <v>19</v>
       </c>
       <c r="C63">
-        <v>-0.3408</v>
+        <v>-0.34079999999999999</v>
       </c>
       <c r="D63">
         <v>0.9</v>
       </c>
       <c r="E63">
-        <v>-1.1908</v>
+        <v>-1.1908000000000001</v>
       </c>
       <c r="F63">
-        <v>0.5092</v>
+        <v>0.50919999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1903,22 +1965,22 @@
         <v>20</v>
       </c>
       <c r="C64">
-        <v>0.0327</v>
+        <v>3.27E-2</v>
       </c>
       <c r="D64">
         <v>0.9</v>
       </c>
       <c r="E64">
-        <v>-0.8173</v>
+        <v>-0.81730000000000003</v>
       </c>
       <c r="F64">
-        <v>0.8827</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1926,22 +1988,22 @@
         <v>21</v>
       </c>
       <c r="C65">
-        <v>0.0122</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D65">
         <v>0.9</v>
       </c>
       <c r="E65">
-        <v>-0.8378</v>
+        <v>-0.83779999999999999</v>
       </c>
       <c r="F65">
-        <v>0.8622</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1949,22 +2011,22 @@
         <v>22</v>
       </c>
       <c r="C66">
-        <v>-0.1878</v>
+        <v>-0.18779999999999999</v>
       </c>
       <c r="D66">
         <v>0.9</v>
       </c>
       <c r="E66">
-        <v>-1.0378</v>
+        <v>-1.0378000000000001</v>
       </c>
       <c r="F66">
-        <v>0.6622</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -1978,16 +2040,16 @@
         <v>0.9</v>
       </c>
       <c r="E67">
-        <v>-0.4513</v>
+        <v>-0.45129999999999998</v>
       </c>
       <c r="F67">
-        <v>1.2487</v>
+        <v>1.2486999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -1995,22 +2057,22 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>0.4026</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="D68">
         <v>0.9</v>
       </c>
       <c r="E68">
-        <v>-0.4474</v>
+        <v>-0.44740000000000002</v>
       </c>
       <c r="F68">
-        <v>1.2526</v>
+        <v>1.2525999999999999</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="C69">
-        <v>0.0264</v>
+        <v>2.64E-2</v>
       </c>
       <c r="D69">
         <v>0.9</v>
@@ -2027,13 +2089,13 @@
         <v>-0.8236</v>
       </c>
       <c r="F69">
-        <v>0.8764</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2041,22 +2103,22 @@
         <v>16</v>
       </c>
       <c r="C70">
-        <v>0.3914</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="D70">
         <v>0.9</v>
       </c>
       <c r="E70">
-        <v>-0.4586</v>
+        <v>-0.45860000000000001</v>
       </c>
       <c r="F70">
-        <v>1.2414</v>
+        <v>1.2414000000000001</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2064,22 +2126,22 @@
         <v>17</v>
       </c>
       <c r="C71">
-        <v>-0.1347</v>
+        <v>-0.13469999999999999</v>
       </c>
       <c r="D71">
         <v>0.9</v>
       </c>
       <c r="E71">
-        <v>-0.9411</v>
+        <v>-0.94110000000000005</v>
       </c>
       <c r="F71">
-        <v>0.6716</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2087,22 +2149,22 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>0.4255</v>
+        <v>0.42549999999999999</v>
       </c>
       <c r="D72">
         <v>0.9</v>
       </c>
       <c r="E72">
-        <v>-0.4245</v>
+        <v>-0.42449999999999999</v>
       </c>
       <c r="F72">
-        <v>1.2754</v>
+        <v>1.2754000000000001</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="C73">
-        <v>-0.1761</v>
+        <v>-0.17610000000000001</v>
       </c>
       <c r="D73">
         <v>0.9</v>
@@ -2119,13 +2181,13 @@
         <v>-1.0261</v>
       </c>
       <c r="F73">
-        <v>0.6739000000000001</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2133,22 +2195,22 @@
         <v>20</v>
       </c>
       <c r="C74">
-        <v>0.1974</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="D74">
         <v>0.9</v>
       </c>
       <c r="E74">
-        <v>-0.6526</v>
+        <v>-0.65259999999999996</v>
       </c>
       <c r="F74">
-        <v>1.0474</v>
+        <v>1.0474000000000001</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2162,16 +2224,16 @@
         <v>0.9</v>
       </c>
       <c r="E75">
-        <v>-0.6731</v>
+        <v>-0.67310000000000003</v>
       </c>
       <c r="F75">
-        <v>1.0269</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2179,22 +2241,22 @@
         <v>22</v>
       </c>
       <c r="C76">
-        <v>-0.0231</v>
+        <v>-2.3099999999999999E-2</v>
       </c>
       <c r="D76">
         <v>0.9</v>
       </c>
       <c r="E76">
-        <v>-0.8731</v>
+        <v>-0.87309999999999999</v>
       </c>
       <c r="F76">
-        <v>0.8269</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2202,22 +2264,22 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>0.0039</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="D77">
         <v>0.9</v>
       </c>
       <c r="E77">
-        <v>-0.8461</v>
+        <v>-0.84609999999999996</v>
       </c>
       <c r="F77">
-        <v>0.8539</v>
+        <v>0.85389999999999999</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2225,22 +2287,22 @@
         <v>15</v>
       </c>
       <c r="C78">
-        <v>-0.3723</v>
+        <v>-0.37230000000000002</v>
       </c>
       <c r="D78">
         <v>0.9</v>
       </c>
       <c r="E78">
-        <v>-1.2223</v>
+        <v>-1.2222999999999999</v>
       </c>
       <c r="F78">
-        <v>0.4777</v>
+        <v>0.47770000000000001</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2248,13 +2310,13 @@
         <v>16</v>
       </c>
       <c r="C79">
-        <v>-0.0073</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="D79">
         <v>0.9</v>
       </c>
       <c r="E79">
-        <v>-0.8572</v>
+        <v>-0.85719999999999996</v>
       </c>
       <c r="F79">
         <v>0.8427</v>
@@ -2263,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2271,22 +2333,22 @@
         <v>17</v>
       </c>
       <c r="C80">
-        <v>-0.5334</v>
+        <v>-0.53339999999999999</v>
       </c>
       <c r="D80">
-        <v>0.5957</v>
+        <v>0.59570000000000001</v>
       </c>
       <c r="E80">
-        <v>-1.3398</v>
+        <v>-1.3398000000000001</v>
       </c>
       <c r="F80">
-        <v>0.2729</v>
+        <v>0.27289999999999998</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2294,22 +2356,22 @@
         <v>18</v>
       </c>
       <c r="C81">
-        <v>0.0268</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="D81">
         <v>0.9</v>
       </c>
       <c r="E81">
-        <v>-0.8232</v>
+        <v>-0.82320000000000004</v>
       </c>
       <c r="F81">
-        <v>0.8768</v>
+        <v>0.87680000000000002</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -2317,13 +2379,13 @@
         <v>19</v>
       </c>
       <c r="C82">
-        <v>-0.5748</v>
+        <v>-0.57479999999999998</v>
       </c>
       <c r="D82">
         <v>0.5635</v>
       </c>
       <c r="E82">
-        <v>-1.4248</v>
+        <v>-1.4248000000000001</v>
       </c>
       <c r="F82">
         <v>0.2752</v>
@@ -2332,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2340,22 +2402,22 @@
         <v>20</v>
       </c>
       <c r="C83">
-        <v>-0.2013</v>
+        <v>-0.20130000000000001</v>
       </c>
       <c r="D83">
         <v>0.9</v>
       </c>
       <c r="E83">
-        <v>-1.0513</v>
+        <v>-1.0512999999999999</v>
       </c>
       <c r="F83">
-        <v>0.6487000000000001</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -2369,16 +2431,16 @@
         <v>0.9</v>
       </c>
       <c r="E84">
-        <v>-1.0718</v>
+        <v>-1.0718000000000001</v>
       </c>
       <c r="F84">
-        <v>0.6282</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2448,7 @@
         <v>22</v>
       </c>
       <c r="C85">
-        <v>-0.4218</v>
+        <v>-0.42180000000000001</v>
       </c>
       <c r="D85">
         <v>0.9</v>
@@ -2395,13 +2457,13 @@
         <v>-1.2718</v>
       </c>
       <c r="F85">
-        <v>0.4282</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2409,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="C86">
-        <v>-0.3762</v>
+        <v>-0.37619999999999998</v>
       </c>
       <c r="D86">
         <v>0.9</v>
@@ -2418,13 +2480,13 @@
         <v>-1.2262</v>
       </c>
       <c r="F86">
-        <v>0.4737</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2432,22 +2494,22 @@
         <v>16</v>
       </c>
       <c r="C87">
-        <v>-0.0112</v>
+        <v>-1.12E-2</v>
       </c>
       <c r="D87">
         <v>0.9</v>
       </c>
       <c r="E87">
-        <v>-0.8612</v>
+        <v>-0.86119999999999997</v>
       </c>
       <c r="F87">
-        <v>0.8388</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2455,22 +2517,22 @@
         <v>17</v>
       </c>
       <c r="C88">
-        <v>-0.5374</v>
+        <v>-0.53739999999999999</v>
       </c>
       <c r="D88">
-        <v>0.585</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E88">
-        <v>-1.3437</v>
+        <v>-1.3436999999999999</v>
       </c>
       <c r="F88">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2478,22 +2540,22 @@
         <v>18</v>
       </c>
       <c r="C89">
-        <v>0.0228</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="D89">
         <v>0.9</v>
       </c>
       <c r="E89">
-        <v>-0.8270999999999999</v>
+        <v>-0.82709999999999995</v>
       </c>
       <c r="F89">
-        <v>0.8728</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2501,22 +2563,22 @@
         <v>19</v>
       </c>
       <c r="C90">
-        <v>-0.5787</v>
+        <v>-0.57869999999999999</v>
       </c>
       <c r="D90">
         <v>0.5534</v>
       </c>
       <c r="E90">
-        <v>-1.4287</v>
+        <v>-1.4287000000000001</v>
       </c>
       <c r="F90">
-        <v>0.2713</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2524,22 +2586,22 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>-0.2052</v>
+        <v>-0.20519999999999999</v>
       </c>
       <c r="D91">
         <v>0.9</v>
       </c>
       <c r="E91">
-        <v>-1.0552</v>
+        <v>-1.0551999999999999</v>
       </c>
       <c r="F91">
-        <v>0.6447000000000001</v>
+        <v>0.64470000000000005</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2547,22 +2609,22 @@
         <v>21</v>
       </c>
       <c r="C92">
-        <v>-0.2257</v>
+        <v>-0.22570000000000001</v>
       </c>
       <c r="D92">
         <v>0.9</v>
       </c>
       <c r="E92">
-        <v>-1.0757</v>
+        <v>-1.0757000000000001</v>
       </c>
       <c r="F92">
-        <v>0.6243</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2570,22 +2632,22 @@
         <v>22</v>
       </c>
       <c r="C93">
-        <v>-0.4257</v>
+        <v>-0.42570000000000002</v>
       </c>
       <c r="D93">
         <v>0.9</v>
       </c>
       <c r="E93">
-        <v>-1.2757</v>
+        <v>-1.2757000000000001</v>
       </c>
       <c r="F93">
-        <v>0.4243</v>
+        <v>0.42430000000000001</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="C94">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D94">
         <v>0.9</v>
@@ -2602,13 +2664,13 @@
         <v>-0.4849</v>
       </c>
       <c r="F94">
-        <v>1.215</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2616,13 +2678,13 @@
         <v>17</v>
       </c>
       <c r="C95">
-        <v>-0.1611</v>
+        <v>-0.16109999999999999</v>
       </c>
       <c r="D95">
         <v>0.9</v>
       </c>
       <c r="E95">
-        <v>-0.9675</v>
+        <v>-0.96750000000000003</v>
       </c>
       <c r="F95">
         <v>0.6452</v>
@@ -2631,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -2639,22 +2701,22 @@
         <v>18</v>
       </c>
       <c r="C96">
-        <v>0.3991</v>
+        <v>0.39910000000000001</v>
       </c>
       <c r="D96">
         <v>0.9</v>
       </c>
       <c r="E96">
-        <v>-0.4509</v>
+        <v>-0.45090000000000002</v>
       </c>
       <c r="F96">
-        <v>1.2491</v>
+        <v>1.2491000000000001</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="C97">
-        <v>-0.2025</v>
+        <v>-0.20250000000000001</v>
       </c>
       <c r="D97">
         <v>0.9</v>
@@ -2671,13 +2733,13 @@
         <v>-1.0525</v>
       </c>
       <c r="F97">
-        <v>0.6475</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2685,22 +2747,22 @@
         <v>20</v>
       </c>
       <c r="C98">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D98">
         <v>0.9</v>
       </c>
       <c r="E98">
-        <v>-0.679</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="F98">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -2708,22 +2770,22 @@
         <v>21</v>
       </c>
       <c r="C99">
-        <v>0.1505</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="D99">
         <v>0.9</v>
       </c>
       <c r="E99">
-        <v>-0.6995</v>
+        <v>-0.69950000000000001</v>
       </c>
       <c r="F99">
-        <v>1.0005</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -2731,22 +2793,22 @@
         <v>22</v>
       </c>
       <c r="C100">
-        <v>-0.0495</v>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="D100">
         <v>0.9</v>
       </c>
       <c r="E100">
-        <v>-0.8995</v>
+        <v>-0.89949999999999997</v>
       </c>
       <c r="F100">
-        <v>0.8005</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2757,7 +2819,7 @@
         <v>-0.5262</v>
       </c>
       <c r="D101">
-        <v>0.6153999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="E101">
         <v>-1.3325</v>
@@ -2769,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2777,22 +2839,22 @@
         <v>18</v>
       </c>
       <c r="C102">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D102">
         <v>0.9</v>
       </c>
       <c r="E102">
-        <v>-0.8159</v>
+        <v>-0.81589999999999996</v>
       </c>
       <c r="F102">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2803,19 +2865,19 @@
         <v>-0.5675</v>
       </c>
       <c r="D103">
-        <v>0.5822000000000001</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="E103">
         <v>-1.4175</v>
       </c>
       <c r="F103">
-        <v>0.2825</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2823,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="C104">
-        <v>-0.194</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="D104">
         <v>0.9</v>
@@ -2832,13 +2894,13 @@
         <v>-1.044</v>
       </c>
       <c r="F104">
-        <v>0.6559</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2855,13 +2917,13 @@
         <v>-1.0645</v>
       </c>
       <c r="F105">
-        <v>0.6354</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2931,7 @@
         <v>22</v>
       </c>
       <c r="C106">
-        <v>-0.4145</v>
+        <v>-0.41449999999999998</v>
       </c>
       <c r="D106">
         <v>0.9</v>
@@ -2878,13 +2940,13 @@
         <v>-1.2645</v>
       </c>
       <c r="F106">
-        <v>0.4354</v>
+        <v>0.43540000000000001</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2892,10 +2954,10 @@
         <v>18</v>
       </c>
       <c r="C107">
-        <v>0.5602</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="D107">
-        <v>0.5231</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="E107">
         <v>-0.2462</v>
@@ -2907,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2915,22 +2977,22 @@
         <v>19</v>
       </c>
       <c r="C108">
-        <v>-0.0414</v>
+        <v>-4.1399999999999999E-2</v>
       </c>
       <c r="D108">
         <v>0.9</v>
       </c>
       <c r="E108">
-        <v>-0.8477</v>
+        <v>-0.84770000000000001</v>
       </c>
       <c r="F108">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2938,22 +3000,22 @@
         <v>20</v>
       </c>
       <c r="C109">
-        <v>0.3321</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
       <c r="E109">
-        <v>-0.4742</v>
+        <v>-0.47420000000000001</v>
       </c>
       <c r="F109">
-        <v>1.1385</v>
+        <v>1.1385000000000001</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2961,22 +3023,22 @@
         <v>21</v>
       </c>
       <c r="C110">
-        <v>0.3116</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
       <c r="E110">
-        <v>-0.4947</v>
+        <v>-0.49469999999999997</v>
       </c>
       <c r="F110">
-        <v>1.118</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -2990,16 +3052,16 @@
         <v>0.9</v>
       </c>
       <c r="E111">
-        <v>-0.6947</v>
+        <v>-0.69469999999999998</v>
       </c>
       <c r="F111">
-        <v>0.9179999999999999</v>
+        <v>0.91799999999999993</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -3007,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>-0.6016</v>
+        <v>-0.60160000000000002</v>
       </c>
       <c r="D112">
         <v>0.4945</v>
@@ -3016,13 +3078,13 @@
         <v>-1.4515</v>
       </c>
       <c r="F112">
-        <v>0.2484</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -3036,16 +3098,16 @@
         <v>0.9</v>
       </c>
       <c r="E113">
-        <v>-1.0781</v>
+        <v>-1.0781000000000001</v>
       </c>
       <c r="F113">
-        <v>0.6219</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3115,7 @@
         <v>21</v>
       </c>
       <c r="C114">
-        <v>-0.2486</v>
+        <v>-0.24859999999999999</v>
       </c>
       <c r="D114">
         <v>0.9</v>
@@ -3062,13 +3124,13 @@
         <v>-1.0986</v>
       </c>
       <c r="F114">
-        <v>0.6014</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3079,19 +3141,19 @@
         <v>-0.4486</v>
       </c>
       <c r="D115">
-        <v>0.8883</v>
+        <v>0.88829999999999998</v>
       </c>
       <c r="E115">
         <v>-1.2986</v>
       </c>
       <c r="F115">
-        <v>0.4014</v>
+        <v>0.40139999999999998</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -3105,7 +3167,7 @@
         <v>0.9</v>
       </c>
       <c r="E116">
-        <v>-0.4765</v>
+        <v>-0.47649999999999998</v>
       </c>
       <c r="F116">
         <v>1.2235</v>
@@ -3114,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3122,22 +3184,22 @@
         <v>21</v>
       </c>
       <c r="C117">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D117">
         <v>0.9</v>
       </c>
       <c r="E117">
-        <v>-0.4970000000000001</v>
+        <v>-0.49700000000000011</v>
       </c>
       <c r="F117">
-        <v>1.203</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -3151,16 +3213,16 @@
         <v>0.9</v>
       </c>
       <c r="E118">
-        <v>-0.6970000000000001</v>
+        <v>-0.69700000000000006</v>
       </c>
       <c r="F118">
-        <v>1.003</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -3168,22 +3230,22 @@
         <v>21</v>
       </c>
       <c r="C119">
-        <v>-0.0205</v>
+        <v>-2.0500000000000001E-2</v>
       </c>
       <c r="D119">
         <v>0.9</v>
       </c>
       <c r="E119">
-        <v>-0.8705000000000001</v>
+        <v>-0.87050000000000005</v>
       </c>
       <c r="F119">
-        <v>0.8295</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3200,13 +3262,13 @@
         <v>-1.0705</v>
       </c>
       <c r="F120">
-        <v>0.6294999999999999</v>
+        <v>0.62949999999999995</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>21</v>
       </c>
